--- a/SampleProject/Common/Table/Equipment.xlsx
+++ b/SampleProject/Common/Table/Equipment.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="107">
   <si>
     <t>FieldName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,14 +236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5;0;0;1;0;0;0;0;1;1;0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2;0;0;1;0;1;0;0;5;5;0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ResID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,6 +265,162 @@
   </si>
   <si>
     <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;0;0;1;0;0;2;1.5;0;0;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;2;0;0;0;0;0;0;0;0;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoTurret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrefabName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrefabName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollideDrone_Wp</t>
+  </si>
+  <si>
+    <t>CollideShield_Wp</t>
+  </si>
+  <si>
+    <t>LaserCannon_Wp</t>
+  </si>
+  <si>
+    <t>RangeDrone_Wp</t>
+  </si>
+  <si>
+    <t>SlashSword_Wp</t>
+  </si>
+  <si>
+    <t>AutoCannonTurret</t>
+  </si>
+  <si>
+    <t>LaserCannonTurret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletLauncher_Wp</t>
+  </si>
+  <si>
+    <t>RocketLauncher_Wp</t>
+  </si>
+  <si>
+    <t>4;2;0;1;3;0;0;0;0;0;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RocketTurret</t>
+  </si>
+  <si>
+    <t>RocketTurret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;2;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;-0.4;3;0;0;0;0;0;0;0;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6;0;0;0;0;0;0;0;0;0;0|6;0;0;0;0;0;0;0;0;0;0|6;0;0;0;0;0;0;0;0;0;0|6;0;0;0;0;0;0;0;0;0;0|6;0;0;1;0;0;0;0;0;0;0|6;0;0;0;0;0;0;0;0;0;0|6;0;0;0;0;0;0;0;0;0;0|6;0;0;0;0;0;0;0;0;0;0|6;0;0;0;0;0;0;0;0;0;0|6;-2.3;0;1;0;0;0;0;0;0;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;1;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;1;0;0;9;0;0;0;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;-0.5;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;-1;0;2;0;1;0;0;0;0;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;2;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;-4;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;2;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;-4;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;-0.5;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;-1;0;2;0;1;0;0;0;0;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6;0;0;0;0;0;0;0;0;0;0|6;0;0;0;0;0;0;0;0;0;0|6;0;0;0;0;0;0;0;0;0;0|6;0;0;0;0;0;0;0;0;0;0|6;0;0;1;0;0;0;0;0;0;0|6;0;0;0;0;0;0;0;0;0;0|6;0;0;0;0;0;0;0;0;0;0|6;0;0;0;0;0;0;0;0;0;0|6;0;0;0;0;0;0;0;0;0;0|6;-2.3;0;1;0;0;0;0;0;0;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;0;0;0;0.3;0;0;0;0;10;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinerDroneTurret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinerDroneTurret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;0;0;0;0.1;0;0;0;0;-1;0|0;0;0;0;0.1;0;0;0;0;-1;0|0;0;0;0;0.1;0;0;0;0;-1;0|0;0;0;0;0.1;0;0;0;0;-1;0|0;0;0;0;0.1;0;0;0;0;-1;0|0;0;0;0;0.1;0;0;0;0;-1;0|0;0;0;0;0.1;0;0;0;0;-1;0|0;0;0;0;0.1;0;0;0;0;-1;0|0;0;0;0;0.1;0;0;0;0;-1;0|0;0;0;0;0.1;0;0;0;0;-1;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnergyTurret</t>
+  </si>
+  <si>
+    <t>1;0;0;0;0;0;0;0;0;0;0</t>
+  </si>
+  <si>
+    <t>1;0;0;0;0;0;0;0;0;-0.1;0|1;0;0;0;0;0;0;0;0;-0.1;0|1;0;0;0;0;0;0;0;0;-0.1;0|1;0;0;0;0;0;0;0;0;-0.1;0|1;0;0;0;0;0;0;0;0;-0.2;0|1;0;0;0;0;0;0;0;0;-0.1;0|1;0;0;0;0;0;0;0;0;-0.1;0|1;0;0;0;0;0;0;0;0;-0.1;0|1;0;0;0;0;0;0;0;0;-0.1;0|1;0;0;0;0;0;0;0;0;-0.5;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShockWaveLauncher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShockWaveLauncher_Wp</t>
+  </si>
+  <si>
+    <t>1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;-0.5;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;-0.5;0;0;0;0;0;0;0;0;1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;2;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;-0.4;3;0;0;0;0;0;0;0;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;1;1;1;5;0;5;0;1;0;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;0;0;0;0;0;0;0;0;0;0|2;0;0;0;0;0;0;0;0;0;0|2;0;0;0;0;0;0;0;0;0;0|2;0;0;0;0;0;0;0;0;0;0|2;-0.3;0;0;3;0;0;0;0;0;0|2;0;0;0;0;0;0;0;0;0;0|2;0;0;0;0;0;0;0;0;0;0|2;0;0;0;0;0;0;0;0;0;0|2;0;0;0;0;0;0;0;0;0;0|2;-0.3;0;3;0;0;0;0;0;0;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;0.5;1;2;10;0;0;0;0;0;0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -281,155 +429,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Repair</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2;0;0;1;0;0;2;1.5;0;0;0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2;2;0;0;0;0;0;0;0;0;0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AutoTurret</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PrefabName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PrefabName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CollideDrone_Wp</t>
-  </si>
-  <si>
-    <t>CollideShield_Wp</t>
-  </si>
-  <si>
-    <t>LaserCannon_Wp</t>
-  </si>
-  <si>
-    <t>RangeDrone_Wp</t>
-  </si>
-  <si>
-    <t>SlashSword_Wp</t>
-  </si>
-  <si>
-    <t>AutoCannonTurret</t>
-  </si>
-  <si>
-    <t>LaserCannonTurret</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BulletLauncher_Wp</t>
-  </si>
-  <si>
-    <t>RocketLauncher_Wp</t>
+    <t>2;0;0;1;0;1;0;0;5;5;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5;0;0;1;0;0;0;0;1;1;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4;2;0;1;3;0;0;0;0;0;0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RocketTurret</t>
-  </si>
-  <si>
-    <t>RocketTurret</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;2;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;-0.4;3;0;0;0;0;0;0;0;0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6;0;0;0;0;0;0;0;0;0;0|6;0;0;0;0;0;0;0;0;0;0|6;0;0;0;0;0;0;0;0;0;0|6;0;0;0;0;0;0;0;0;0;0|6;0;0;1;0;0;0;0;0;0;0|6;0;0;0;0;0;0;0;0;0;0|6;0;0;0;0;0;0;0;0;0;0|6;0;0;0;0;0;0;0;0;0;0|6;0;0;0;0;0;0;0;0;0;0|6;-2.3;0;1;0;0;0;0;0;0;0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;1;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;1;0;0;9;0;0;0;0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;-0.5;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;-1;0;2;0;1;0;0;0;0;0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;2;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;-4;0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;2;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;-4;0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;-0.5;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;-1;0;2;0;1;0;0;0;0;0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6;0;0;0;0;0;0;0;0;0;0|6;0;0;0;0;0;0;0;0;0;0|6;0;0;0;0;0;0;0;0;0;0|6;0;0;0;0;0;0;0;0;0;0|6;0;0;1;0;0;0;0;0;0;0|6;0;0;0;0;0;0;0;0;0;0|6;0;0;0;0;0;0;0;0;0;0|6;0;0;0;0;0;0;0;0;0;0|6;0;0;0;0;0;0;0;0;0;0|6;-2.3;0;1;0;0;0;0;0;0;0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0;0;0;0;0.3;0;0;0;0;10;0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MinerDroneTurret</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MinerDroneTurret</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0;0;0;0;0.1;0;0;0;0;-1;0|0;0;0;0;0.1;0;0;0;0;-1;0|0;0;0;0;0.1;0;0;0;0;-1;0|0;0;0;0;0.1;0;0;0;0;-1;0|0;0;0;0;0.1;0;0;0;0;-1;0|0;0;0;0;0.1;0;0;0;0;-1;0|0;0;0;0;0.1;0;0;0;0;-1;0|0;0;0;0;0.1;0;0;0;0;-1;0|0;0;0;0;0.1;0;0;0;0;-1;0|0;0;0;0;0.1;0;0;0;0;-1;0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnergyTurret</t>
-  </si>
-  <si>
-    <t>1;0;0;0;0;0;0;0;0;0;0</t>
-  </si>
-  <si>
-    <t>1;0;0;0;0;0;0;0;0;-0.1;0|1;0;0;0;0;0;0;0;0;-0.1;0|1;0;0;0;0;0;0;0;0;-0.1;0|1;0;0;0;0;0;0;0;0;-0.1;0|1;0;0;0;0;0;0;0;0;-0.2;0|1;0;0;0;0;0;0;0;0;-0.1;0|1;0;0;0;0;0;0;0;0;-0.1;0|1;0;0;0;0;0;0;0;0;-0.1;0|1;0;0;0;0;0;0;0;0;-0.1;0|1;0;0;0;0;0;0;0;0;-0.5;0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShockWaveLauncher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShockWaveLauncher_Wp</t>
-  </si>
-  <si>
-    <t>1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;-0.5;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;-0.5;0;0;0;0;0;0;0;0;1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;2;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;0;0;0;0;0;0;0;0;0;0|1;-0.4;3;0;0;0;0;0;0;0;0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;1;1;1;5;0;5;0;1;0;0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2;0;0;0;0;0;0;0;0;0;0|2;0;0;0;0;0;0;0;0;0;0|2;0;0;0;0;0;0;0;0;0;0|2;0;0;0;0;0;0;0;0;0;0|2;-0.3;0;0;3;0;0;0;0;0;0|2;0;0;0;0;0;0;0;0;0;0|2;0;0;0;0;0;0;0;0;0;0|2;0;0;0;0;0;0;0;0;0;0|2;0;0;0;0;0;0;0;0;0;0|2;-0.3;0;3;0;0;0;0;0;0;0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -937,10 +945,10 @@
     </row>
     <row r="4" spans="1:11">
       <c r="B4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -948,10 +956,10 @@
     </row>
     <row r="5" spans="1:11">
       <c r="B5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -959,10 +967,10 @@
     </row>
     <row r="6" spans="1:11">
       <c r="B6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -1009,10 +1017,10 @@
     </row>
     <row r="9" spans="1:11">
       <c r="B9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D9" s="4"/>
       <c r="G9">
@@ -1151,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1187,16 +1195,16 @@
         <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>46</v>
@@ -1210,7 +1218,7 @@
         <v>999</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C2">
         <v>41001</v>
@@ -1227,7 +1235,7 @@
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C3">
         <v>41002</v>
@@ -1250,7 +1258,7 @@
         <v>11001</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E4" s="5">
         <v>11201</v>
@@ -1262,10 +1270,10 @@
         <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1279,7 +1287,7 @@
         <v>11002</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E5" s="5">
         <v>11202</v>
@@ -1294,7 +1302,7 @@
         <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1308,7 +1316,7 @@
         <v>11003</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E6" s="5">
         <v>11203</v>
@@ -1320,10 +1328,10 @@
         <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1337,7 +1345,7 @@
         <v>11004</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E7" s="5">
         <v>11204</v>
@@ -1349,10 +1357,10 @@
         <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1366,7 +1374,7 @@
         <v>11005</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E8" s="5">
         <v>11205</v>
@@ -1378,10 +1386,10 @@
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1395,7 +1403,7 @@
         <v>11006</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E9" s="5">
         <v>11206</v>
@@ -1407,10 +1415,10 @@
         <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1424,7 +1432,7 @@
         <v>11007</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E10" s="5">
         <v>11207</v>
@@ -1436,10 +1444,10 @@
         <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1447,13 +1455,13 @@
         <v>1008</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C11" s="5">
         <v>11008</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E11" s="5">
         <v>11208</v>
@@ -1462,10 +1470,10 @@
         <v>1010</v>
       </c>
       <c r="H11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1473,13 +1481,13 @@
         <v>2001</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C12">
         <v>20001</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E12">
         <v>20101</v>
@@ -1491,7 +1499,7 @@
         <v>51</v>
       </c>
       <c r="I12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1499,13 +1507,13 @@
         <v>2002</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C13" s="5">
         <v>20011</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E13" s="5">
         <v>20111</v>
@@ -1517,7 +1525,7 @@
         <v>52</v>
       </c>
       <c r="I13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1525,13 +1533,13 @@
         <v>2003</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C14" s="5">
         <v>20012</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E14" s="5">
         <v>20112</v>
@@ -1540,10 +1548,10 @@
         <v>1004</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1551,13 +1559,13 @@
         <v>2004</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C15" s="5">
         <v>20013</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E15" s="5">
         <v>20113</v>
@@ -1566,10 +1574,10 @@
         <v>1008</v>
       </c>
       <c r="H15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" t="s">
         <v>92</v>
-      </c>
-      <c r="I15" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1577,13 +1585,13 @@
         <v>2005</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="5">
         <v>20014</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E16" s="5">
         <v>20114</v>
@@ -1592,15 +1600,15 @@
         <v>1009</v>
       </c>
       <c r="H16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="7:7" ht="49.5">
       <c r="G18" s="1" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1611,9 +1619,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1749,19 +1760,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9613FD50-1727-42E0-8C9E-9E18D62B9503}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F9D1A86-93D6-4367-903A-B7D1F5096104}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1785,9 +1792,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F9D1A86-93D6-4367-903A-B7D1F5096104}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9613FD50-1727-42E0-8C9E-9E18D62B9503}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>